--- a/Recycling/Met_rec_tech/metrec_tech_Max_hist_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_hist_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.633006595860869E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.945597282497727E-08</v>
+      </c>
+      <c r="E7">
         <v>2.065913537685935</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.935211635384008E-10</v>
-      </c>
-      <c r="F7">
-        <v>3.945597282497727E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1101087492618957</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.417939184042586</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>339605.7362506218</v>
+      </c>
+      <c r="E7">
         <v>974766.9180761706</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59666.7500949332</v>
-      </c>
-      <c r="F7">
-        <v>339605.7362506218</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51952.98070966827</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.53152577524225</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416953.8407813212</v>
+      </c>
+      <c r="E7">
         <v>1004819.749185272</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73057.24248150433</v>
-      </c>
-      <c r="F7">
-        <v>416953.8407813212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53554.73198572057</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.463473326559734E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.846943405668826E-07</v>
+      </c>
+      <c r="E7">
         <v>4.440937928619271</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.99552287365198E-09</v>
-      </c>
-      <c r="F7">
-        <v>6.846943405668826E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2366924423263636</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.557906964774812E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.665652477991168E-06</v>
+      </c>
+      <c r="E7">
         <v>9.844985716100817</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.870019727444684E-08</v>
-      </c>
-      <c r="F7">
-        <v>9.665652477991168E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5247165691722597</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.736693791088162E-10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9.361674511600425E-05</v>
+      </c>
+      <c r="E7">
         <v>18.20076253529074</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.10027122069183E-06</v>
-      </c>
-      <c r="F7">
-        <v>9.361674511600425E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.9700615063583049</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.741613219805223E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0008274785729912986</v>
+      </c>
+      <c r="E7">
         <v>36.21587700979318</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.103387893226391E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.0008274785729912986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.930228370272284</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.403311218082562E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.005959168652609296</v>
+      </c>
+      <c r="E7">
         <v>67.62094515763684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.890588282478963E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.005959168652609296</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.604050972798527</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.049534474198623E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.03094525581657023</v>
+      </c>
+      <c r="E7">
         <v>102.609327004173</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0005099730975820529</v>
-      </c>
-      <c r="F7">
-        <v>0.03094525581657023</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5.468856490330008</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.805501184472814E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1691741041622169</v>
+      </c>
+      <c r="E7">
         <v>180.9752324819077</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.003044494476463253</v>
-      </c>
-      <c r="F7">
-        <v>0.1691741041622169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.645590743494608</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.602425535779343E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.8475002815055133</v>
+      </c>
+      <c r="E7">
         <v>317.0820078370012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01648750018975665</v>
-      </c>
-      <c r="F7">
-        <v>0.8475002815055133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16.89978920196729</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.298918036442715E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.947810574157083</v>
+      </c>
+      <c r="E7">
         <v>551.7455272818795</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08229211970867874</v>
-      </c>
-      <c r="F7">
-        <v>3.947810574157083</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29.40685019562934</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.354012166489388E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>15.30410629467126</v>
+      </c>
+      <c r="E7">
         <v>843.773918996196</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3392000093655625</v>
-      </c>
-      <c r="F7">
-        <v>15.30410629467126</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>44.97133553059817</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002185383618552169</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>59.1364492371918</v>
+      </c>
+      <c r="E7">
         <v>1347.098499295436</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.384535785181637</v>
-      </c>
-      <c r="F7">
-        <v>59.1364492371918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71.79745337074519</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0008398409113256794</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>216.2588330678014</v>
+      </c>
+      <c r="E7">
         <v>2119.982452460448</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.320758267421798</v>
-      </c>
-      <c r="F7">
-        <v>216.2588330678014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>112.9905061559612</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.002590331506541448</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>636.5609120818606</v>
+      </c>
+      <c r="E7">
         <v>2791.092151611984</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>16.41087924263894</v>
-      </c>
-      <c r="F7">
-        <v>636.5609120818606</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>148.7592100456089</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.008622240267371014</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2017.927289323816</v>
+      </c>
+      <c r="E7">
         <v>4130.815791291498</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54.62565060553592</v>
-      </c>
-      <c r="F7">
-        <v>2017.927289323816</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>220.1635992568537</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0260085799005186</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5716.130498727963</v>
+      </c>
+      <c r="E7">
         <v>5812.403090865048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>164.7756910426583</v>
-      </c>
-      <c r="F7">
-        <v>5716.130498727963</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>309.7885864371644</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.07127455703239115</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>14114.18527507293</v>
+      </c>
+      <c r="E7">
         <v>7996.274591026693</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>451.5553880178375</v>
-      </c>
-      <c r="F7">
-        <v>14114.18527507293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>426.1842414561279</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1665792436713346</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27177.6651899186</v>
+      </c>
+      <c r="E7">
         <v>10769.11955941022</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1055.352122041858</v>
-      </c>
-      <c r="F7">
-        <v>27177.6651899186</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>573.9709158722504</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2916311552272429</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35698.48256425708</v>
+      </c>
+      <c r="E7">
         <v>14213.49149027975</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1847.610492996563</v>
-      </c>
-      <c r="F7">
-        <v>35698.48256425708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>757.5485334165135</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3153034616086468</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34794.03325540856</v>
+      </c>
+      <c r="E7">
         <v>18401.00461638045</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1997.584872893083</v>
-      </c>
-      <c r="F7">
-        <v>34794.03325540856</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>980.7339787034374</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4.53293788046608E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.415958419339548E-07</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1947524527000108</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33801.46575328701</v>
+      </c>
+      <c r="E7">
         <v>23385.15543750483</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1233.841682192615</v>
-      </c>
-      <c r="F7">
-        <v>33801.46575328701</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1246.378500139399</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1251564699333755</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>35654.86185950292</v>
+      </c>
+      <c r="E7">
         <v>29195.13151906748</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>792.9207938538935</v>
-      </c>
-      <c r="F7">
-        <v>35654.86185950292</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1556.0377321995</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1938648135887406</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37874.69764780582</v>
+      </c>
+      <c r="E7">
         <v>35831.77303046194</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1228.218101492881</v>
-      </c>
-      <c r="F7">
-        <v>37874.69764780582</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1909.756454105815</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2950931166101957</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39849.47448817774</v>
+      </c>
+      <c r="E7">
         <v>43267.60263884778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1869.543527457536</v>
-      </c>
-      <c r="F7">
-        <v>39849.47448817774</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2306.070183101962</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4114351841060306</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41327.92618196723</v>
+      </c>
+      <c r="E7">
         <v>51453.86746663567</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2606.62123959266</v>
-      </c>
-      <c r="F7">
-        <v>41327.92618196723</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2742.38049564487</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.5773643492774495</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44454.76667370475</v>
+      </c>
+      <c r="E7">
         <v>60338.41414177453</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3657.854830962511</v>
-      </c>
-      <c r="F7">
-        <v>44454.76667370475</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3215.907729148671</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.708224993917696</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45830.89675799718</v>
+      </c>
+      <c r="E7">
         <v>69898.63410099776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4486.914058085265</v>
-      </c>
-      <c r="F7">
-        <v>45830.89675799718</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3725.446895806047</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.8153832287688785</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44754.89957617316</v>
+      </c>
+      <c r="E7">
         <v>80193.02850748245</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5165.808187101628</v>
-      </c>
-      <c r="F7">
-        <v>44754.89957617316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4274.115981820335</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.206786063086984</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45597.56402139275</v>
+      </c>
+      <c r="E7">
         <v>91432.30425031658</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7645.515758507134</v>
-      </c>
-      <c r="F7">
-        <v>45597.56402139275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4873.145211300684</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.993579580684472</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45901.16052832755</v>
+      </c>
+      <c r="E7">
         <v>104065.5667256584</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12630.19566282689</v>
-      </c>
-      <c r="F7">
-        <v>45901.16052832755</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5546.470936159066</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0003318251032123491</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.768556448366022E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.922278765301749</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47140.53906835824</v>
+      </c>
+      <c r="E7">
         <v>118868.7505275562</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18513.90982566797</v>
-      </c>
-      <c r="F7">
-        <v>47140.53906835824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6335.448801780036</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.922088068996805</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49423.88342055275</v>
+      </c>
+      <c r="E7">
         <v>137014.2372687132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24848.13759040445</v>
-      </c>
-      <c r="F7">
-        <v>49423.88342055275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7302.564227169561</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.098413604212331</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49142.14723771701</v>
+      </c>
+      <c r="E7">
         <v>160095.3987312503</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25965.23671787451</v>
-      </c>
-      <c r="F7">
-        <v>49142.14723771701</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8532.740502115965</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.554043037201669</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>46037.87963463586</v>
+      </c>
+      <c r="E7">
         <v>190079.7695936415</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22516.41187985723</v>
-      </c>
-      <c r="F7">
-        <v>46037.87963463586</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10130.84299422744</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.443540202513244</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41464.53593200685</v>
+      </c>
+      <c r="E7">
         <v>229173.4455218954</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21816.32825293092</v>
-      </c>
-      <c r="F7">
-        <v>41464.53593200685</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>12214.45185877436</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.17854993073164</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41044.16899072978</v>
+      </c>
+      <c r="E7">
         <v>279597.0263048578</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20137.49936956213</v>
-      </c>
-      <c r="F7">
-        <v>41044.16899072978</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>14901.9202895864</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.790677882440607</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47861.77467191804</v>
+      </c>
+      <c r="E7">
         <v>343295.1796108127</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17680.16086673938</v>
-      </c>
-      <c r="F7">
-        <v>47861.77467191804</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>18296.89489179911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.41029133402336</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65529.19700800903</v>
+      </c>
+      <c r="E7">
         <v>421618.8211390856</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15270.24626861348</v>
-      </c>
-      <c r="F7">
-        <v>65529.19700800903</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>22471.37656733682</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.749748942483551</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>102059.7381752461</v>
+      </c>
+      <c r="E7">
         <v>515023.0129832349</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17420.85819082</v>
-      </c>
-      <c r="F7">
-        <v>102059.7381752461</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>27449.61914727432</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.287660873276721</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>156675.2149052841</v>
+      </c>
+      <c r="E7">
         <v>622814.5607056092</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27164.20066197663</v>
-      </c>
-      <c r="F7">
-        <v>156675.2149052841</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>33194.67685864834</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.004002735610512679</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0002133372010298542</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.109305244556035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>220669.8296447185</v>
+      </c>
+      <c r="E7">
         <v>742969.636987115</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38705.11182512446</v>
-      </c>
-      <c r="F7">
-        <v>220669.8296447185</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>39598.68405715073</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.541597794695566</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>310390.1245091937</v>
+      </c>
+      <c r="E7">
         <v>872036.1481705678</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54114.74538836101</v>
-      </c>
-      <c r="F7">
-        <v>310390.1245091937</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46477.65157382853</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.1601131495305</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>442077.4555641076</v>
+      </c>
+      <c r="E7">
         <v>1005144.158361147</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77039.61750448556</v>
-      </c>
-      <c r="F7">
-        <v>442077.4555641076</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53572.0222972235</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.68472411629381</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>533842.584728549</v>
+      </c>
+      <c r="E7">
         <v>1136163.049759469</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93034.12847945817</v>
-      </c>
-      <c r="F7">
-        <v>533842.584728549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60555.04748118568</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.99074377741999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>546306.8633722285</v>
+      </c>
+      <c r="E7">
         <v>1258048.409122993</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94972.89642940312</v>
-      </c>
-      <c r="F7">
-        <v>546306.8633722285</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67051.27504736301</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.80325702907646</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>541467.4078132069</v>
+      </c>
+      <c r="E7">
         <v>1363399.159486895</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93785.08615149432</v>
-      </c>
-      <c r="F7">
-        <v>541467.4078132069</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72666.24350793319</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.42624980635889</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>530250.4703752322</v>
+      </c>
+      <c r="E7">
         <v>1445194.649275189</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91396.58105475424</v>
-      </c>
-      <c r="F7">
-        <v>530250.4703752322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77025.76723027708</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.89051865851715</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>511975.5968749435</v>
+      </c>
+      <c r="E7">
         <v>1497617.748154242</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88002.49070317231</v>
-      </c>
-      <c r="F7">
-        <v>511975.5968749435</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>79819.80567608286</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.47498893356454</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>496034.3515846265</v>
+      </c>
+      <c r="E7">
         <v>1516819.160646703</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85369.9287624695</v>
-      </c>
-      <c r="F7">
-        <v>496034.3515846265</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>80843.19967347877</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.13218195820036</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>481496.5748829323</v>
+      </c>
+      <c r="E7">
         <v>1501464.975724858</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83198.09714090719</v>
-      </c>
-      <c r="F7">
-        <v>481496.5748829323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>80024.85463297239</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.02207902254521261</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001176764425534317</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.15021372047415</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>443706.3122162422</v>
+      </c>
+      <c r="E7">
         <v>1452946.949857632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76976.90030616382</v>
-      </c>
-      <c r="F7">
-        <v>443706.3122162422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77438.94818168865</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.756356366683999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>354993.3902781351</v>
+      </c>
+      <c r="E7">
         <v>1375217.070843093</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61810.77046604682</v>
-      </c>
-      <c r="F7">
-        <v>354993.3902781351</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73296.11277137609</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.988794441279635</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>214687.8860197044</v>
+      </c>
+      <c r="E7">
         <v>1274307.286244317</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37941.6233546302</v>
-      </c>
-      <c r="F7">
-        <v>214687.8860197044</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67917.83823675822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.611648130955463</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>116227.4401017925</v>
+      </c>
+      <c r="E7">
         <v>1157670.437918566</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22881.36525936371</v>
-      </c>
-      <c r="F7">
-        <v>116227.4401017925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61701.34502311519</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.832749605437054</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101130.4622189386</v>
+      </c>
+      <c r="E7">
         <v>1033492.749480073</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24282.13948031718</v>
-      </c>
-      <c r="F7">
-        <v>101130.4622189386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55082.94124639601</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.421720412018042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96555.35396408869</v>
+      </c>
+      <c r="E7">
         <v>910074.167789226</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28013.52627765627</v>
-      </c>
-      <c r="F7">
-        <v>96555.35396408869</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48504.99622703282</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.649109926256971</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>85008.88772002237</v>
+      </c>
+      <c r="E7">
         <v>795286.212888935</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29454.1379714853</v>
-      </c>
-      <c r="F7">
-        <v>85008.88772002237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42387.04505732449</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.290430675492902</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65523.51334698466</v>
+      </c>
+      <c r="E7">
         <v>696061.3542794914</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27181.74856639772</v>
-      </c>
-      <c r="F7">
-        <v>65523.51334698466</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>37098.57345487198</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.729528339721235</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>50772.81827392114</v>
+      </c>
+      <c r="E7">
         <v>617889.2071170191</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23628.18776693344</v>
-      </c>
-      <c r="F7">
-        <v>50772.81827392114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>32932.16610327583</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.412967280689624</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48506.36765662392</v>
+      </c>
+      <c r="E7">
         <v>564378.2643216436</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21622.6354661679</v>
-      </c>
-      <c r="F7">
-        <v>48506.36765662392</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30080.14791590125</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.08650422914908529</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.004610489405156412</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.192808218479174</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>52741.55500574659</v>
+      </c>
+      <c r="E7">
         <v>537015.2638824501</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20227.83183775807</v>
-      </c>
-      <c r="F7">
-        <v>52741.55500574659</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28621.75883066048</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.029327268690424</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65621.64987918455</v>
+      </c>
+      <c r="E7">
         <v>535243.6371423554</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19192.10875803643</v>
-      </c>
-      <c r="F7">
-        <v>65621.64987918455</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28527.33493491059</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.131227931143206</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>90892.65388081488</v>
+      </c>
+      <c r="E7">
         <v>556874.0867251131</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19837.69387408603</v>
-      </c>
-      <c r="F7">
-        <v>90892.65388081488</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29680.19138610444</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.805688749395548</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>131759.8051258664</v>
+      </c>
+      <c r="E7">
         <v>598696.5446115411</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24110.69716122477</v>
-      </c>
-      <c r="F7">
-        <v>131759.8051258664</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>31909.23846137123</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.21653417279458</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189211.5335041735</v>
+      </c>
+      <c r="E7">
         <v>657078.6974584714</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33049.01791861113</v>
-      </c>
-      <c r="F7">
-        <v>189211.5335041735</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>35020.88167001822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.226316324450012</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>262348.1448028346</v>
+      </c>
+      <c r="E7">
         <v>728369.6056647038</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45781.86393138483</v>
-      </c>
-      <c r="F7">
-        <v>262348.1448028346</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38820.53378185128</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.62940738092702</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>349690.8218267241</v>
+      </c>
+      <c r="E7">
         <v>809052.7924130489</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61006.49330307672</v>
-      </c>
-      <c r="F7">
-        <v>349690.8218267241</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43120.77414393114</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.12403659058895</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>440896.6260747249</v>
+      </c>
+      <c r="E7">
         <v>895722.5457952432</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76811.05677749576</v>
-      </c>
-      <c r="F7">
-        <v>440896.6260747249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>47740.08563478848</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.00173262891563</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>509809.1490524276</v>
+      </c>
+      <c r="E7">
         <v>985009.1111422987</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88707.07968481221</v>
-      </c>
-      <c r="F7">
-        <v>509809.1490524276</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52498.86757648916</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.76446201785139</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>538672.0809108114</v>
+      </c>
+      <c r="E7">
         <v>1073542.928181151</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93539.30284429077</v>
-      </c>
-      <c r="F7">
-        <v>538672.0809108114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57217.52965198374</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.300082881234633E-17</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3.126216825472996E-11</v>
+      </c>
+      <c r="E7">
         <v>0.2987014061063486</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.457202767934546E-13</v>
-      </c>
-      <c r="F7">
-        <v>3.126216825472996E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01592014265320119</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.76923518709534</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>540346.1904959872</v>
+      </c>
+      <c r="E7">
         <v>1157980.651093668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93569.54295211847</v>
-      </c>
-      <c r="F7">
-        <v>540346.1904959872</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61717.8787183023</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.59912775908854</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>535306.6029406574</v>
+      </c>
+      <c r="E7">
         <v>1235075.720506477</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92491.8382443442</v>
-      </c>
-      <c r="F7">
-        <v>535306.6029406574</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65826.88014186239</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.54750669480747</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>533278.5048851278</v>
+      </c>
+      <c r="E7">
         <v>1301777.268254347</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92164.79630003948</v>
-      </c>
-      <c r="F7">
-        <v>533278.5048851278</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69381.92920968401</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.63326142273436</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>534506.8409670447</v>
+      </c>
+      <c r="E7">
         <v>1355357.41033217</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92708.08988271016</v>
-      </c>
-      <c r="F7">
-        <v>534506.8409670447</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72237.63557001509</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.2512435555971</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>517938.7859849827</v>
+      </c>
+      <c r="E7">
         <v>1393571.99177513</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90287.8401693865</v>
-      </c>
-      <c r="F7">
-        <v>517938.7859849827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>74274.39058879692</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.87364867535724</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>464984.7357592498</v>
+      </c>
+      <c r="E7">
         <v>1414848.644958668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81560.17609712304</v>
-      </c>
-      <c r="F7">
-        <v>464984.7357592498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75408.39045267444</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.68147019435643</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>381056.1091588112</v>
+      </c>
+      <c r="E7">
         <v>1418478.550317159</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67671.76982975309</v>
-      </c>
-      <c r="F7">
-        <v>381056.1091588112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75601.85660296172</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.186239845075052</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>282693.7799286661</v>
+      </c>
+      <c r="E7">
         <v>1404774.421852619</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>51863.39787380275</v>
-      </c>
-      <c r="F7">
-        <v>282693.7799286661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>74871.45602354298</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.408827625958665</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>204657.5582031523</v>
+      </c>
+      <c r="E7">
         <v>1375151.787615109</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40602.71667579826</v>
-      </c>
-      <c r="F7">
-        <v>204657.5582031523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73292.63331570187</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.89385160405221</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>167026.7482310237</v>
+      </c>
+      <c r="E7">
         <v>1332096.353605535</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37340.11909436155</v>
-      </c>
-      <c r="F7">
-        <v>167026.7482310237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>70997.87126431782</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.532688559473317E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.543327644013525E-09</v>
+      </c>
+      <c r="E7">
         <v>0.882264671798563</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.710250136931022E-12</v>
-      </c>
-      <c r="F7">
-        <v>1.543327644013525E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0470228098889901</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.038432934173828</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>152576.511130053</v>
+      </c>
+      <c r="E7">
         <v>1278999.12029918</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38256.10484497846</v>
-      </c>
-      <c r="F7">
-        <v>152576.511130053</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68167.90290311594</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.06777164463667</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139409.4901150398</v>
+      </c>
+      <c r="E7">
         <v>1219870.987902253</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38441.97836476717</v>
-      </c>
-      <c r="F7">
-        <v>139409.4901150398</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>65016.50058852058</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.773992305535494</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>123832.6814333463</v>
+      </c>
+      <c r="E7">
         <v>1158980.778396891</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36580.75819051666</v>
-      </c>
-      <c r="F7">
-        <v>123832.6814333463</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61771.18335300833</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.349741475142056</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>112480.783982661</v>
+      </c>
+      <c r="E7">
         <v>1100481.135151422</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33892.94424523831</v>
-      </c>
-      <c r="F7">
-        <v>112480.783982661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>58653.27815875671</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.031929069885185</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>110884.0886214672</v>
+      </c>
+      <c r="E7">
         <v>1048085.194298165</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31879.46412066271</v>
-      </c>
-      <c r="F7">
-        <v>110884.0886214672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55860.68717732842</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.868028693540721</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>118624.8454100879</v>
+      </c>
+      <c r="E7">
         <v>1004834.130274927</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30841.08379087883</v>
-      </c>
-      <c r="F7">
-        <v>118624.8454100879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>53555.49846687577</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.88445048755578</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>135762.3118778258</v>
+      </c>
+      <c r="E7">
         <v>972964.4335799197</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30945.12301437129</v>
-      </c>
-      <c r="F7">
-        <v>135762.3118778258</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51856.91216186812</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.213787483079617</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>164593.2051143914</v>
+      </c>
+      <c r="E7">
         <v>953859.9990260743</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33031.6164419602</v>
-      </c>
-      <c r="F7">
-        <v>164593.2051143914</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50838.68688007056</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.060256450406673</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>208412.1965303947</v>
+      </c>
+      <c r="E7">
         <v>948065.9297613524</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38394.36633337966</v>
-      </c>
-      <c r="F7">
-        <v>208412.1965303947</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50529.87544714393</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.50730565180033</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>267947.7461694928</v>
+      </c>
+      <c r="E7">
         <v>955345.1883066877</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>47562.05380591302</v>
-      </c>
-      <c r="F7">
-        <v>267947.7461694928</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50917.84427515142</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
